--- a/data/trans_dic/iP30KDB5_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP30KDB5_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>91,61%</t>
+          <t>97,34%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>97,59%</t>
+          <t>91,35%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>94,7%</t>
+          <t>94,38%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>82,54; 96,37</t>
+          <t>90,54; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>92,48; 100,0</t>
+          <t>81,03; 96,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>89,96; 97,61</t>
+          <t>88,99; 97,33</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>91,0%</t>
+          <t>93,84%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>93,71%</t>
+          <t>90,91%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>92,29%</t>
+          <t>92,28%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>86,54; 94,3</t>
+          <t>90,78; 96,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>90,0; 96,05</t>
+          <t>86,6; 94,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>89,84; 94,53</t>
+          <t>89,71; 94,2</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>92,69%</t>
+          <t>90,9%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>91,5%</t>
+          <t>92,95%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>92,14%</t>
+          <t>92,03%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>88,61; 95,67</t>
+          <t>84,74; 94,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>85,32; 94,62</t>
+          <t>89,14; 96,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>89,18; 94,48</t>
+          <t>88,63; 94,5</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>91,36%</t>
+          <t>91,55%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>90,84%</t>
+          <t>90,13%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>91,11%</t>
+          <t>90,8%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>84,08; 94,66</t>
+          <t>88,01; 94,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>87,21; 94,02</t>
+          <t>79,46; 94,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>87,56; 93,39</t>
+          <t>84,5; 93,49</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>91,66%</t>
+          <t>92,35%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>92,22%</t>
+          <t>91,2%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>91,93%</t>
+          <t>91,74%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>88,03; 93,51</t>
+          <t>89,89; 94,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>89,76; 93,85</t>
+          <t>86,46; 93,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>90,28; 93,37</t>
+          <t>89,21; 93,19</t>
         </is>
       </c>
     </row>
